--- a/nriss-patch-1/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-careplan-projet-personnalise.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CarePlan</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CarePlan|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -627,7 +627,7 @@
     <t>entrantProjetPerso</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1005,7 +1005,7 @@
     <t>auteurStatut</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-status-author}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-status-author|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1066,7 +1066,7 @@
     <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-j367-type-projet-personnalise-ms</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-j367-type-projet-personnalise-ms|20250422120000</t>
   </si>
   <si>
     <t>typeProjetPersonnalise</t>
@@ -1112,7 +1112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1411,7 +1411,7 @@
     <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-discriminator}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-discriminator|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1504,7 +1504,7 @@
     <t>accordUsager</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-consent-accord)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-consent-accord|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1576,7 +1576,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-care-plan-supportingInfo-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-care-plan-supportingInfo-vs|2.2.0-ballot</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -2531,7 +2531,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="136.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.17578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="86.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
